--- a/biology/Botanique/Sextonia_rubra/Sextonia_rubra.xlsx
+++ b/biology/Botanique/Sextonia_rubra/Sextonia_rubra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sextonia rubra, anciennement Ocotea rubra, appelé grignon franc en Guyane, est un arbre tropical de la famille des Lauraceae présent dans le bassin amazonien et sur le plateau des Guyanes. C'est un arbre de forêt primaire[1].
-Le grignon franc est l'une des quatre principales essences exploitée en Guyane[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sextonia rubra, anciennement Ocotea rubra, appelé grignon franc en Guyane, est un arbre tropical de la famille des Lauraceae présent dans le bassin amazonien et sur le plateau des Guyanes. C'est un arbre de forêt primaire.
+Le grignon franc est l'une des quatre principales essences exploitée en Guyane
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Louro vermelho en brésilien ; nom commercial international.
 Ocotea rubra Mez</t>
